--- a/测试用例/甘蔗课程推荐网站-测试用例.xlsx
+++ b/测试用例/甘蔗课程推荐网站-测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,11 +50,266 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>培训机构登录成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构注册信息提交成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息提交成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的机构名称，例如：雪梨
+2.输入正确的邮箱账号，例如：a@163.com
+3.输入正确的密码
+5.输入正确的联系方式,例如：13152638745
+6.输入正确的地址
+8.正确上传教育局审批说明，房屋使用说明，消防安全证书，营业执照
+9.点击提交信息按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册，当前页面为培训机构登录页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询审核结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击“查询审核”按钮
+2.输入提交审核的邮箱和机构名称
+3.点击查询按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入培训机构的简介，保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入培训机构的简介，例如：雪梨是一个在线IT学习网站
+2.点击添加图片，上传正确格式的图片
+3.点击更换图片，上传修改后的图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.简介添加成功
+2.图片上传成功
+3.图片修改成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>培训机构登录成功</t>
+    <t>输入正确的用户名和密码登录成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册，当前页为登录页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录成功
+2.跳转到首页，右上角显示用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册一个新用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为注册页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确已注册的邮箱，例如：abc@163.com
+2.输入正确的密码
+3.点击登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的邮箱，例如：xiaoli@163.com
+2.输入正确的密码，例如：123456
+3.输入正确的昵称，例如：小明
+4.输入手机号码，例如：13132115498
+5.点击注册按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.注册成功
+2.跳转到登录页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为完善个人信息页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择性别
+2.输入年龄，例如：22
+3.选择学历
+4.选择职业
+5.输入地址，例如：河北省石家庄市河北师范大学
+6.选择一个或多个兴趣爱好
+7.点击保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.保存成功，个人信息完善成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过绑定的邮箱找回密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为找回密码页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入邮箱
+2.输入对应的验证码
+3.点击发送到验证邮箱按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码成功找回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为重置密码页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入邮箱
+2.输入旧密码
+3.输入新密码
+4.再次输入新密码
+5.点击确认重置按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出对话框，显示重置成功
+2.点击确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为课程列表页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击语言按钮
+2.点击英语
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示英语课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看英语课程列表页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某培训机构的课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为培训机构详情页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击语言按钮
+3.点击英语
+</t>
+  </si>
+  <si>
+    <t>显示当前培训机构内所含的英语课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看我的收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为个人信息页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击我的收藏按钮
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前用户收藏的课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为管理员登录页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的账号
+2.输入值正确的密码
+3.点击登录按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -62,13 +317,171 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.输入正确的用户名和密码
-2.点击登录
+    <t>管理首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看用户管理页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击用户管理按钮
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已注册，当前页面为培训机构登录注册页</t>
+    <t>显示已注册的所有用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员已登录，当前页为管理首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员已登录，当前页为用户管理页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选用户编号为1的禁用框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看培训机构管理页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击培训机构管理按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示已注册的所有培训机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用培训机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员已登录，当前页为培训机构管理页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选名为音乐之家的培训机构的禁用框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页面为培训机构注册页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询是否审核通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册，提交审核信息，当前页面为培训机构查询页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出对话框
+2.显示审核结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.输入正确的登录名
+2.输入正确的密码
+3.点击登录
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构添加课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为培训机构添加课程页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入课程名称
+2.选择分类
+3.输入价格
+4.输入授课教师
+5.输入联系方式
+6.输入地址
+7.输入简介
+8.点击保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程添加成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训机构管理分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为培训机构管理分类页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页面为培训机构管理页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为培训机构管理课程页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除培训机构课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为名为“钢琴”的课程选择一个父级分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击钢琴课程后的删除按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,13 +877,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -498,9 +918,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -512,20 +1087,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.77734375" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,27 +1126,163 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -579,13 +1293,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -611,6 +1331,106 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/测试用例/甘蔗课程推荐网站-测试用例.xlsx
+++ b/测试用例/甘蔗课程推荐网站-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="普通用户" sheetId="1" r:id="rId1"/>
@@ -106,27 +106,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.输入培训机构的简介，例如：雪梨是一个在线IT学习网站
-2.点击添加图片，上传正确格式的图片
-3.点击更换图片，上传修改后的图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.简介添加成功
-2.图片上传成功
-3.图片修改成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>输入正确的用户名和密码登录成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已注册，当前页为登录页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -140,10 +124,6 @@
   </si>
   <si>
     <t>成功注册一个新用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页为注册页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +177,6 @@
   </si>
   <si>
     <t>通过绑定的邮箱找回密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页为找回密码页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -482,6 +458,28 @@
   </si>
   <si>
     <t>删除成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入培训机构的简介，例如：雪梨是一个在线IT学习网站
+2.点击保存按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.简介添加成功
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册，当前页为网站首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为网站首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为登录页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,12 +512,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -562,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +578,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -918,64 +926,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -983,39 +991,39 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1023,19 +1031,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1043,19 +1051,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1063,19 +1071,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1089,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -1166,54 +1174,54 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
@@ -1221,22 +1229,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1244,22 +1252,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,22 +1275,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1304,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1333,24 +1341,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1358,19 +1366,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,19 +1386,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,19 +1406,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,19 +1426,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/测试用例/甘蔗课程推荐网站-测试用例.xlsx
+++ b/测试用例/甘蔗课程推荐网站-测试用例.xlsx
@@ -158,16 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.选择性别
-2.输入年龄，例如：22
-3.选择学历
-4.选择职业
-5.输入地址，例如：河北省石家庄市河北师范大学
-6.选择一个或多个兴趣爱好
-7.点击保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.保存成功，个人信息完善成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,10 +212,6 @@
   </si>
   <si>
     <t>显示英语课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看英语课程列表页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -461,25 +447,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1.简介添加成功
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册，当前页为网站首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为网站首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前页为登录页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.输入培训机构的简介，例如：雪梨是一个在线IT学习网站
 2.点击保存按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.简介添加成功
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已注册，当前页为网站首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页为网站首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页为登录页</t>
+    <t>1.输入昵称
+2.输入邮箱，例如：abc@163.com
+3.选择性别
+4.选择生日
+5.输入学历
+6.选择职业
+7.选择地址
+8.输入手机号
+9.点击保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看英语课程列表页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -937,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>25</v>
@@ -957,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>26</v>
@@ -966,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -980,10 +982,10 @@
         <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -991,19 +993,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.25">
@@ -1011,19 +1013,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1031,19 +1033,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1051,19 +1053,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1071,19 +1073,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1100,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -1174,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1188,16 +1190,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -1206,22 +1208,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
@@ -1229,22 +1231,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1252,22 +1254,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1275,22 +1277,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1306,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1349,16 +1351,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1366,19 +1368,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,19 +1388,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,19 +1408,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,19 +1428,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
